--- a/biology/Zoologie/Buse_plombée/Buse_plombée.xlsx
+++ b/biology/Zoologie/Buse_plombée/Buse_plombée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Buse_plomb%C3%A9e</t>
+          <t>Buse_plombée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptoleucopteryx plumbea, Cryptoleucopteryx
 La Buse plombée (Cryptoleucopteryx plumbea), unique représentant du genre Cryptoleucopteryx, est une espèce d'oiseaux de la famille des Accipitridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Buse_plomb%C3%A9e</t>
+          <t>Buse_plombée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans le Tumbes-Chocó-Magdalena.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Buse_plomb%C3%A9e</t>
+          <t>Buse_plombée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Cryptoleucopteryx est une combinaison basée sur les termes en grec ancien κρυπτός, kruptós, « couvert, caché », λευκός, leukós, « blanc », et πτερόν, pterón, « aile, plume »[2].
-Son nom spécifique, du latin plumbum, « plomb », lui a été donné en référence à sa livrée de couleur grise[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Cryptoleucopteryx est une combinaison basée sur les termes en grec ancien κρυπτός, kruptós, « couvert, caché », λευκός, leukós, « blanc », et πτερόν, pterón, « aile, plume ».
+Son nom spécifique, du latin plumbum, « plomb », lui a été donné en référence à sa livrée de couleur grise. 
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Buse_plomb%C3%A9e</t>
+          <t>Buse_plombée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Genre Cryptoleucopteryx :
 (en) Fábio Raposo do Amaral, Frederick H. Sheldon, Anita Gamauf, Elisabeth Haring, Martin Riesing, Luís F. Silveira et Anita Wajntal, « Patterns and processes of diversification in a widespread and ecologically diverse avian group, the buteonine hawks (Aves, Accipitridae) », Molecular Phylogenetics and Evolution, Academic Press et Elsevier, vol. 53, no 3,‎ 25 juillet 2009, p. 703-715 (ISSN 1055-7903 et 1095-9513, PMID 19635577, DOI 10.1016/J.YMPEV.2009.07.020, lire en ligne)
